--- a/LaunchDay2019.xlsx
+++ b/LaunchDay2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADEF40B-1690-4C35-B7FB-1170B09A7324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A76DA-5AC5-427C-BBAF-8DF583710718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" activeTab="6" xr2:uid="{E0AE1655-7E8A-40EC-9DA3-4E597455FD9E}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="133">
   <si>
     <t>No Fly Zone</t>
   </si>
@@ -566,6 +566,9 @@
   <si>
     <t>Initiating +30 min cardio until 11/16</t>
   </si>
+  <si>
+    <t>Ka Raoul's Wedding</t>
+  </si>
 </sst>
 </file>
 
@@ -1497,6 +1500,12 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>160.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>160.30000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2538,10 +2547,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Weight Loss'!$A$2:$A$88</c:f>
+              <c:f>'Weight Loss'!$A$2:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>43635</c:v>
                 </c:pt>
@@ -2802,16 +2811,118 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43772</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43780</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43785</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43787</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43791</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43793</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43794</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43795</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43796</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43797</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43801</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43802</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weight Loss'!$I$2:$I$88</c:f>
+              <c:f>'Weight Loss'!$I$2:$I$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>175.6</c:v>
                 </c:pt>
@@ -3068,6 +3179,12 @@
                   <c:v>158.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>159.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>159.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>159.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3137,13 +3254,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -3404,6 +3521,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3413,13 +3632,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$B$2:$B$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>176.3</c:v>
                       </c:pt>
@@ -3677,6 +3896,12 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>160.1</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>161.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>160.30000000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3734,13 +3959,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -4001,6 +4226,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4010,13 +4337,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$C$2:$C$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$C$2:$C$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="31">
                         <c:v>168</c:v>
                       </c:pt>
@@ -4184,6 +4511,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>160.00000000000031</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>159.9200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>159.84000000000029</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>159.76000000000028</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>159.68000000000026</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>159.60000000000025</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>159.52000000000024</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>159.44000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>159.36000000000021</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>159.2800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>159.20000000000019</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>159.12000000000018</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>159.04000000000016</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>158.96000000000015</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>158.88000000000014</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>158.80000000000013</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>158.72000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>158.6400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>158.59000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>158.54000000000008</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>158.49000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>158.44000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>158.39000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>158.34000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>158.29000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>158.24</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>158.19</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>158.13999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>158.08999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>158.03999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>157.98999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>157.93999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>157.88999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>157.83999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>157.78999999999991</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4240,13 +4669,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -4507,6 +4936,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4516,13 +5047,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$D$2:$D$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$D$2:$D$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4578,13 +5109,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -4845,6 +5376,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4854,13 +5487,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$E$2:$E$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$E$2:$E$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="58">
                         <c:v>0</c:v>
                       </c:pt>
@@ -4943,6 +5576,12 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="85">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
                         <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5000,13 +5639,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -5267,6 +5906,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5276,13 +6017,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$G$2:$G$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$G$2:$G$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>20.599999999999994</c:v>
                       </c:pt>
@@ -5542,6 +6283,9 @@
                         <c:v>3.8000000000000114</c:v>
                       </c:pt>
                       <c:pt idx="86">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
                         <c:v>3.8000000000000114</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5601,13 +6345,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -5868,6 +6612,108 @@
                       </c:pt>
                       <c:pt idx="86">
                         <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43770</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43771</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43772</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43773</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43774</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43775</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43776</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>43777</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>43779</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>43780</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>43781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>43782</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>43783</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>43784</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>43785</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>43786</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>43787</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>43788</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>43789</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>43790</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>43791</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43792</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>43793</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>43794</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>43795</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>43796</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>43797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>43798</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>43800</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>43801</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>43802</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5877,13 +6723,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$J$2:$J$88</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$J$2:$J$122</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
+                      <c:ptCount val="121"/>
                       <c:pt idx="0">
                         <c:v>177</c:v>
                       </c:pt>
@@ -6141,6 +6987,12 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>161.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7639,6 +8491,9 @@
                       <c:pt idx="85">
                         <c:v>160.1</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>161.69999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8963,6 +9818,9 @@
                       <c:pt idx="85">
                         <c:v>2</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9577,6 +10435,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>159.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>159.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10195,6 +11056,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>164</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11688,6 +12552,9 @@
                       <c:pt idx="85">
                         <c:v>160.1</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>161.69999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13011,6 +13878,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14229,6 +15099,9 @@
                       <c:pt idx="85">
                         <c:v>159.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>159.4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14846,6 +15719,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>164</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16339,6 +17215,9 @@
                       <c:pt idx="85">
                         <c:v>160.1</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>161.69999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17662,6 +18541,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19499,6 +20381,9 @@
                       <c:pt idx="85">
                         <c:v>159.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="86">
+                        <c:v>159.4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20116,6 +21001,9 @@
                       </c:pt>
                       <c:pt idx="85">
                         <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>164</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23049,15 +23937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>166646</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>130534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>608606</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10411</xdr:rowOff>
+      <xdr:rowOff>3785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24422,8 +25310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF176076-3C40-49D4-B069-791D0EDFF6E2}">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25341,7 +26229,7 @@
         <v>43690</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B87" si="1">AVERAGE($I34:$J34)</f>
+        <f t="shared" ref="B34:B89" si="1">AVERAGE($I34:$J34)</f>
         <v>167.8</v>
       </c>
       <c r="C34">
@@ -27222,10 +28110,18 @@
       <c r="A88" s="14">
         <v>43769</v>
       </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>161.69999999999999</v>
+      </c>
       <c r="C88">
         <f t="shared" si="6"/>
         <v>160.00000000000031</v>
       </c>
+      <c r="E88">
+        <f>E87+1-IF(ISBLANK(K88),0,1)-IF(ISBLANK(L88),0,1)-IF(ISBLANK(M88),0,1)</f>
+        <v>1</v>
+      </c>
       <c r="F88">
         <f>MAX(IF($I88-165&lt;MIN($F$2:$F87),$I88-165,MIN($F$2:$F87)),0)</f>
         <v>0</v>
@@ -27235,15 +28131,51 @@
       </c>
       <c r="H88">
         <v>13.800000000000011</v>
+      </c>
+      <c r="I88">
+        <v>159.4</v>
+      </c>
+      <c r="J88">
+        <v>164</v>
+      </c>
+      <c r="K88" t="s">
+        <v>132</v>
+      </c>
+      <c r="L88" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>43770</v>
       </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>160.30000000000001</v>
+      </c>
       <c r="C89">
         <f>C88-(A89-A88)*0.08</f>
         <v>159.9200000000003</v>
+      </c>
+      <c r="E89">
+        <f>E88+1-IF(ISBLANK(K89),0,1)-IF(ISBLANK(L89),0,1)-IF(ISBLANK(M89),0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <f>MAX(IF($I89-165&lt;MIN($F$2:$F88),$I89-165,MIN($F$2:$F88)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="H89">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="I89">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="J89">
+        <v>161.4</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">

--- a/LaunchDay2019.xlsx
+++ b/LaunchDay2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A76DA-5AC5-427C-BBAF-8DF583710718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F167B2B5-8CDB-45AA-909E-1F358712D265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" activeTab="6" xr2:uid="{E0AE1655-7E8A-40EC-9DA3-4E597455FD9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" activeTab="7" xr2:uid="{E0AE1655-7E8A-40EC-9DA3-4E597455FD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Preference" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="CodeSnippets" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>No Fly Zone</t>
   </si>
@@ -569,6 +568,12 @@
   <si>
     <t>Ka Raoul's Wedding</t>
   </si>
+  <si>
+    <t>Panda Express</t>
+  </si>
+  <si>
+    <t>Century Day Stats</t>
+  </si>
 </sst>
 </file>
 
@@ -1506,6 +1511,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>160.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>162.69999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,6 +3195,9 @@
                 <c:pt idx="87">
                   <c:v>159.19999999999999</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>159.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3903,6 +3914,9 @@
                       <c:pt idx="87">
                         <c:v>160.30000000000001</c:v>
                       </c:pt>
+                      <c:pt idx="88">
+                        <c:v>162.69999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3920,7 +3934,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$1</c15:sqref>
@@ -3956,7 +3970,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
@@ -4334,7 +4348,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$2:$C$122</c15:sqref>
@@ -4618,7 +4632,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-38E4-4348-9EB9-E9362E6CE55A}"/>
                   </c:ext>
@@ -4631,7 +4645,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$1</c15:sqref>
@@ -4666,7 +4680,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
@@ -5044,7 +5058,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$2:$D$122</c15:sqref>
@@ -5058,7 +5072,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-38E4-4348-9EB9-E9362E6CE55A}"/>
                   </c:ext>
@@ -5071,7 +5085,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$1</c15:sqref>
@@ -5106,7 +5120,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
@@ -5484,7 +5498,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$2:$E$122</c15:sqref>
@@ -5584,11 +5598,14 @@
                       <c:pt idx="87">
                         <c:v>2</c:v>
                       </c:pt>
+                      <c:pt idx="88">
+                        <c:v>1</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-38E4-4348-9EB9-E9362E6CE55A}"/>
                   </c:ext>
@@ -5601,7 +5618,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$1</c15:sqref>
@@ -5636,7 +5653,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
@@ -6014,7 +6031,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$2:$G$122</c15:sqref>
@@ -6288,11 +6305,14 @@
                       <c:pt idx="87">
                         <c:v>3.8000000000000114</c:v>
                       </c:pt>
+                      <c:pt idx="88">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-38E4-4348-9EB9-E9362E6CE55A}"/>
                   </c:ext>
@@ -6305,7 +6325,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$1</c15:sqref>
@@ -6342,7 +6362,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
@@ -6720,7 +6740,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$2:$J$122</c15:sqref>
@@ -6994,11 +7014,14 @@
                       <c:pt idx="87">
                         <c:v>161.4</c:v>
                       </c:pt>
+                      <c:pt idx="88">
+                        <c:v>166</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-38E4-4348-9EB9-E9362E6CE55A}"/>
                   </c:ext>
@@ -9380,7 +9403,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-EE84-4453-A87A-AAB730C39E50}"/>
                   </c:ext>
@@ -9824,7 +9847,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-EE84-4453-A87A-AAB730C39E50}"/>
                   </c:ext>
@@ -9837,7 +9860,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$1</c15:sqref>
@@ -9892,7 +9915,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -10168,7 +10191,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$2:$I$88</c15:sqref>
@@ -10442,7 +10465,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-EE84-4453-A87A-AAB730C39E50}"/>
                   </c:ext>
@@ -11063,7 +11086,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-EE84-4453-A87A-AAB730C39E50}"/>
                   </c:ext>
@@ -12571,7 +12594,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$1</c15:sqref>
@@ -12627,7 +12650,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -12903,7 +12926,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$2:$C$88</c15:sqref>
@@ -13097,7 +13120,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$1</c15:sqref>
@@ -13152,7 +13175,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -13428,7 +13451,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$2:$D$88</c15:sqref>
@@ -13441,7 +13464,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DFBD-42A4-8DB3-5DB0A36594A9}"/>
                   </c:ext>
@@ -13454,7 +13477,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$1</c15:sqref>
@@ -13509,7 +13532,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -13785,7 +13808,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$2:$E$88</c15:sqref>
@@ -13885,7 +13908,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-DFBD-42A4-8DB3-5DB0A36594A9}"/>
                   </c:ext>
@@ -13898,7 +13921,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$1</c15:sqref>
@@ -13934,7 +13957,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -14210,7 +14233,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$2:$G$88</c15:sqref>
@@ -14484,7 +14507,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-DFBD-42A4-8DB3-5DB0A36594A9}"/>
                   </c:ext>
@@ -14497,7 +14520,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$1</c15:sqref>
@@ -14555,7 +14578,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -14831,7 +14854,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$2:$I$88</c15:sqref>
@@ -15105,7 +15128,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-DFBD-42A4-8DB3-5DB0A36594A9}"/>
                   </c:ext>
@@ -15118,7 +15141,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$1</c15:sqref>
@@ -15176,7 +15199,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -15452,7 +15475,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$2:$J$88</c15:sqref>
@@ -15726,7 +15749,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-DFBD-42A4-8DB3-5DB0A36594A9}"/>
                   </c:ext>
@@ -17234,7 +17257,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$1</c15:sqref>
@@ -17290,7 +17313,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -17566,7 +17589,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$C$2:$C$88</c15:sqref>
@@ -17760,7 +17783,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$1</c15:sqref>
@@ -17815,7 +17838,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -18091,7 +18114,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$D$2:$D$88</c15:sqref>
@@ -18104,7 +18127,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -18117,7 +18140,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$1</c15:sqref>
@@ -18172,7 +18195,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -18448,7 +18471,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$2:$E$88</c15:sqref>
@@ -18548,7 +18571,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -18561,7 +18584,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$1</c15:sqref>
@@ -18595,7 +18618,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -18871,7 +18894,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$2:$G$88</c15:sqref>
@@ -19145,7 +19168,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -19158,7 +19181,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$H$1</c15:sqref>
@@ -19216,7 +19239,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -19492,7 +19515,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$H$2:$H$88</c15:sqref>
@@ -19766,7 +19789,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -19779,7 +19802,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$1</c15:sqref>
@@ -19837,7 +19860,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -20113,7 +20136,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$2:$I$88</c15:sqref>
@@ -20387,7 +20410,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -20400,7 +20423,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$1</c15:sqref>
@@ -20458,7 +20481,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$A$2:$A$88</c15:sqref>
@@ -20734,7 +20757,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$2:$J$88</c15:sqref>
@@ -21008,7 +21031,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-76D8-485A-94B7-EED62ACF8804}"/>
                   </c:ext>
@@ -25310,8 +25333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF176076-3C40-49D4-B069-791D0EDFF6E2}">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26229,7 +26252,7 @@
         <v>43690</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B89" si="1">AVERAGE($I34:$J34)</f>
+        <f t="shared" ref="B34:B90" si="1">AVERAGE($I34:$J34)</f>
         <v>167.8</v>
       </c>
       <c r="C34">
@@ -27095,7 +27118,7 @@
         <v>162.90000000000018</v>
       </c>
       <c r="E61">
-        <f>E60+1-IF(ISBLANK(K61),0,1)-IF(ISBLANK(L61),0,1)-IF(ISBLANK(M61),0,1)</f>
+        <f t="shared" ref="E61:E89" si="4">E60+1-IF(ISBLANK(K61),0,1)-IF(ISBLANK(L61),0,1)-IF(ISBLANK(M61),0,1)</f>
         <v>0</v>
       </c>
       <c r="F61">
@@ -27133,7 +27156,7 @@
         <v>162.80000000000018</v>
       </c>
       <c r="E62">
-        <f>E61+1-IF(ISBLANK(K62),0,1)-IF(ISBLANK(L62),0,1)-IF(ISBLANK(M62),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -27171,7 +27194,7 @@
         <v>162.70000000000019</v>
       </c>
       <c r="E63">
-        <f>E62+1-IF(ISBLANK(K63),0,1)-IF(ISBLANK(L63),0,1)-IF(ISBLANK(M63),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -27209,7 +27232,7 @@
         <v>162.60000000000019</v>
       </c>
       <c r="E64">
-        <f>E63+1-IF(ISBLANK(K64),0,1)-IF(ISBLANK(L64),0,1)-IF(ISBLANK(M64),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -27247,7 +27270,7 @@
         <v>162.5000000000002</v>
       </c>
       <c r="E65">
-        <f>E64+1-IF(ISBLANK(K65),0,1)-IF(ISBLANK(L65),0,1)-IF(ISBLANK(M65),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F65">
@@ -27288,7 +27311,7 @@
         <v>162.4000000000002</v>
       </c>
       <c r="E66">
-        <f>E65+1-IF(ISBLANK(K66),0,1)-IF(ISBLANK(L66),0,1)-IF(ISBLANK(M66),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F66">
@@ -27326,7 +27349,7 @@
         <v>162.30000000000021</v>
       </c>
       <c r="E67">
-        <f>E66+1-IF(ISBLANK(K67),0,1)-IF(ISBLANK(L67),0,1)-IF(ISBLANK(M67),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F67">
@@ -27364,7 +27387,7 @@
         <v>162.20000000000022</v>
       </c>
       <c r="E68">
-        <f>E67+1-IF(ISBLANK(K68),0,1)-IF(ISBLANK(L68),0,1)-IF(ISBLANK(M68),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F68">
@@ -27402,7 +27425,7 @@
         <v>162.10000000000022</v>
       </c>
       <c r="E69">
-        <f>E68+1-IF(ISBLANK(K69),0,1)-IF(ISBLANK(L69),0,1)-IF(ISBLANK(M69),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F69">
@@ -27440,7 +27463,7 @@
         <v>162.00000000000023</v>
       </c>
       <c r="E70">
-        <f>E69+1-IF(ISBLANK(K70),0,1)-IF(ISBLANK(L70),0,1)-IF(ISBLANK(M70),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F70">
@@ -27474,11 +27497,11 @@
         <v>162.30000000000001</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C72" si="4">C70-(A71-A70)*0.1</f>
+        <f t="shared" ref="C71:C72" si="5">C70-(A71-A70)*0.1</f>
         <v>161.90000000000023</v>
       </c>
       <c r="E71">
-        <f>E70+1-IF(ISBLANK(K71),0,1)-IF(ISBLANK(L71),0,1)-IF(ISBLANK(M71),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F71">
@@ -27512,11 +27535,11 @@
         <v>161.69999999999999</v>
       </c>
       <c r="C72">
+        <f t="shared" si="5"/>
+        <v>161.80000000000024</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="4"/>
-        <v>161.80000000000024</v>
-      </c>
-      <c r="E72">
-        <f>E71+1-IF(ISBLANK(K72),0,1)-IF(ISBLANK(L72),0,1)-IF(ISBLANK(M72),0,1)</f>
         <v>-1</v>
       </c>
       <c r="F72">
@@ -27550,11 +27573,11 @@
         <v>162.19999999999999</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C76" si="5">C72-(A73-A72)*0.1</f>
+        <f t="shared" ref="C73:C75" si="6">C72-(A73-A72)*0.1</f>
         <v>161.70000000000024</v>
       </c>
       <c r="E73">
-        <f>E72+1-IF(ISBLANK(K73),0,1)-IF(ISBLANK(L73),0,1)-IF(ISBLANK(M73),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="F73">
@@ -27591,11 +27614,11 @@
         <v>162.30000000000001</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161.60000000000025</v>
       </c>
       <c r="E74">
-        <f>E73+1-IF(ISBLANK(K74),0,1)-IF(ISBLANK(L74),0,1)-IF(ISBLANK(M74),0,1)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F74">
@@ -27626,11 +27649,11 @@
         <v>161.60000000000002</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161.50000000000026</v>
       </c>
       <c r="E75">
-        <f>E74+1-IF(ISBLANK(K75),0,1)-IF(ISBLANK(L75),0,1)-IF(ISBLANK(M75),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -27664,11 +27687,11 @@
         <v>161.80000000000001</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C89" si="6">C75-(A76-A75)*0.1</f>
+        <f t="shared" ref="C76:C88" si="7">C75-(A76-A75)*0.1</f>
         <v>161.40000000000026</v>
       </c>
       <c r="E76">
-        <f>E75+1-IF(ISBLANK(K76),0,1)-IF(ISBLANK(L76),0,1)-IF(ISBLANK(M76),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F76">
@@ -27702,11 +27725,11 @@
         <v>161.80000000000001</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>161.30000000000027</v>
       </c>
       <c r="E77">
-        <f>E76+1-IF(ISBLANK(K77),0,1)-IF(ISBLANK(L77),0,1)-IF(ISBLANK(M77),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F77">
@@ -27737,11 +27760,11 @@
         <v>161.80000000000001</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>161.20000000000027</v>
       </c>
       <c r="E78">
-        <f>E77+1-IF(ISBLANK(K78),0,1)-IF(ISBLANK(L78),0,1)-IF(ISBLANK(M78),0,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F78">
@@ -27772,11 +27795,11 @@
         <v>162.89999999999998</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>161.10000000000028</v>
       </c>
       <c r="E79">
-        <f>E78+1-IF(ISBLANK(K79),0,1)-IF(ISBLANK(L79),0,1)-IF(ISBLANK(M79),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F79">
@@ -27816,11 +27839,11 @@
         <v>163.19999999999999</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>161.00000000000028</v>
       </c>
       <c r="E80">
-        <f>E79+1-IF(ISBLANK(K80),0,1)-IF(ISBLANK(L80),0,1)-IF(ISBLANK(M80),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80">
@@ -27854,11 +27877,11 @@
         <v>161.69999999999999</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.90000000000029</v>
       </c>
       <c r="E81">
-        <f>E80+1-IF(ISBLANK(K81),0,1)-IF(ISBLANK(L81),0,1)-IF(ISBLANK(M81),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F81">
@@ -27889,11 +27912,11 @@
         <v>162</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.8000000000003</v>
       </c>
       <c r="E82">
-        <f>E81+1-IF(ISBLANK(K82),0,1)-IF(ISBLANK(L82),0,1)-IF(ISBLANK(M82),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F82">
@@ -27927,11 +27950,11 @@
         <v>160.30000000000001</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.7000000000003</v>
       </c>
       <c r="E83">
-        <f>E82+1-IF(ISBLANK(K83),0,1)-IF(ISBLANK(L83),0,1)-IF(ISBLANK(M83),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F83">
@@ -27965,11 +27988,11 @@
         <v>160.80000000000001</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.60000000000031</v>
       </c>
       <c r="E84">
-        <f>E83+1-IF(ISBLANK(K84),0,1)-IF(ISBLANK(L84),0,1)-IF(ISBLANK(M84),0,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F84">
@@ -28000,11 +28023,11 @@
         <v>160.30000000000001</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.3000000000003</v>
       </c>
       <c r="E85">
-        <f>E84+1-IF(ISBLANK(K85),0,1)-IF(ISBLANK(L85),0,1)-IF(ISBLANK(M85),0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85">
@@ -28044,11 +28067,11 @@
         <v>160</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.2000000000003</v>
       </c>
       <c r="E86">
-        <f>E85+1-IF(ISBLANK(K86),0,1)-IF(ISBLANK(L86),0,1)-IF(ISBLANK(M86),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F86">
@@ -28082,11 +28105,11 @@
         <v>160.1</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.10000000000031</v>
       </c>
       <c r="E87">
-        <f>E86+1-IF(ISBLANK(K87),0,1)-IF(ISBLANK(L87),0,1)-IF(ISBLANK(M87),0,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F87">
@@ -28115,11 +28138,11 @@
         <v>161.69999999999999</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160.00000000000031</v>
       </c>
       <c r="E88">
-        <f>E87+1-IF(ISBLANK(K88),0,1)-IF(ISBLANK(L88),0,1)-IF(ISBLANK(M88),0,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F88">
@@ -28158,7 +28181,7 @@
         <v>159.9200000000003</v>
       </c>
       <c r="E89">
-        <f>E88+1-IF(ISBLANK(K89),0,1)-IF(ISBLANK(L89),0,1)-IF(ISBLANK(M89),0,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F89">
@@ -28182,9 +28205,39 @@
       <c r="A90" s="14">
         <v>43771</v>
       </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>162.69999999999999</v>
+      </c>
       <c r="C90">
-        <f t="shared" ref="C90:C105" si="7">C89-(A90-A89)*0.08</f>
+        <f t="shared" ref="C90:C105" si="8">C89-(A90-A89)*0.08</f>
         <v>159.84000000000029</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ref="E90" si="9">E89+1-IF(ISBLANK(K90),0,1)-IF(ISBLANK(L90),0,1)-IF(ISBLANK(M90),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f>MAX(IF($I90-165&lt;MIN($F$2:$F89),$I90-165,MIN($F$2:$F89)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="H90">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="I90">
+        <v>159.4</v>
+      </c>
+      <c r="J90">
+        <v>166</v>
+      </c>
+      <c r="K90" t="s">
+        <v>133</v>
+      </c>
+      <c r="L90" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -28192,7 +28245,7 @@
         <v>43772</v>
       </c>
       <c r="C91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.76000000000028</v>
       </c>
     </row>
@@ -28201,7 +28254,7 @@
         <v>43773</v>
       </c>
       <c r="C92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.68000000000026</v>
       </c>
     </row>
@@ -28210,7 +28263,7 @@
         <v>43774</v>
       </c>
       <c r="C93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.60000000000025</v>
       </c>
     </row>
@@ -28219,7 +28272,7 @@
         <v>43775</v>
       </c>
       <c r="C94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.52000000000024</v>
       </c>
     </row>
@@ -28228,7 +28281,7 @@
         <v>43776</v>
       </c>
       <c r="C95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.44000000000023</v>
       </c>
     </row>
@@ -28237,7 +28290,7 @@
         <v>43777</v>
       </c>
       <c r="C96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.36000000000021</v>
       </c>
     </row>
@@ -28246,7 +28299,7 @@
         <v>43778</v>
       </c>
       <c r="C97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.2800000000002</v>
       </c>
     </row>
@@ -28255,7 +28308,7 @@
         <v>43779</v>
       </c>
       <c r="C98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.20000000000019</v>
       </c>
     </row>
@@ -28264,7 +28317,7 @@
         <v>43780</v>
       </c>
       <c r="C99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.12000000000018</v>
       </c>
     </row>
@@ -28273,7 +28326,7 @@
         <v>43781</v>
       </c>
       <c r="C100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.04000000000016</v>
       </c>
     </row>
@@ -28282,7 +28335,7 @@
         <v>43782</v>
       </c>
       <c r="C101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.96000000000015</v>
       </c>
     </row>
@@ -28291,7 +28344,7 @@
         <v>43783</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.88000000000014</v>
       </c>
     </row>
@@ -28300,7 +28353,7 @@
         <v>43784</v>
       </c>
       <c r="C103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.80000000000013</v>
       </c>
     </row>
@@ -28309,7 +28362,7 @@
         <v>43785</v>
       </c>
       <c r="C104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.72000000000011</v>
       </c>
     </row>
@@ -28318,7 +28371,7 @@
         <v>43786</v>
       </c>
       <c r="C105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.6400000000001</v>
       </c>
     </row>
@@ -28336,7 +28389,7 @@
         <v>43788</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:C121" si="8">C106-(A107-A106)*0.05</f>
+        <f t="shared" ref="C107:C121" si="10">C106-(A107-A106)*0.05</f>
         <v>158.54000000000008</v>
       </c>
     </row>
@@ -28345,7 +28398,7 @@
         <v>43789</v>
       </c>
       <c r="C108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.49000000000007</v>
       </c>
     </row>
@@ -28354,7 +28407,7 @@
         <v>43790</v>
       </c>
       <c r="C109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.44000000000005</v>
       </c>
     </row>
@@ -28363,7 +28416,7 @@
         <v>43791</v>
       </c>
       <c r="C110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.39000000000004</v>
       </c>
     </row>
@@ -28372,7 +28425,7 @@
         <v>43792</v>
       </c>
       <c r="C111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.34000000000003</v>
       </c>
     </row>
@@ -28381,7 +28434,7 @@
         <v>43793</v>
       </c>
       <c r="C112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.29000000000002</v>
       </c>
     </row>
@@ -28390,7 +28443,7 @@
         <v>43794</v>
       </c>
       <c r="C113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.24</v>
       </c>
     </row>
@@ -28399,7 +28452,7 @@
         <v>43795</v>
       </c>
       <c r="C114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.19</v>
       </c>
     </row>
@@ -28408,7 +28461,7 @@
         <v>43796</v>
       </c>
       <c r="C115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.13999999999999</v>
       </c>
     </row>
@@ -28417,7 +28470,7 @@
         <v>43797</v>
       </c>
       <c r="C116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158.08999999999997</v>
       </c>
     </row>
@@ -28435,7 +28488,7 @@
         <v>43799</v>
       </c>
       <c r="C118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157.98999999999995</v>
       </c>
     </row>
@@ -28444,7 +28497,7 @@
         <v>43800</v>
       </c>
       <c r="C119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157.93999999999994</v>
       </c>
     </row>
@@ -28453,7 +28506,7 @@
         <v>43801</v>
       </c>
       <c r="C120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157.88999999999993</v>
       </c>
     </row>
@@ -28462,7 +28515,7 @@
         <v>43802</v>
       </c>
       <c r="C121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157.83999999999992</v>
       </c>
     </row>
@@ -28471,7 +28524,7 @@
         <v>43803</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122" si="9">C121-(A122-A121)*0.05</f>
+        <f t="shared" ref="C122" si="11">C121-(A122-A121)*0.05</f>
         <v>157.78999999999991</v>
       </c>
     </row>
@@ -28484,14 +28537,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C534A19-5CFA-41E5-9178-89AB934F9AA7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
